--- a/medicine/Enfance/Ramón_Díaz_Eterovic/Ramón_Díaz_Eterovic.xlsx
+++ b/medicine/Enfance/Ramón_Díaz_Eterovic/Ramón_Díaz_Eterovic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_D%C3%ADaz_Eterovic</t>
+          <t>Ramón_Díaz_Eterovic</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramón Díaz Eterovic, né à Punta Arenas le 15 juillet 1956, est un écrivain chilien, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_D%C3%ADaz_Eterovic</t>
+          <t>Ramón_Díaz_Eterovic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramón Díaz Eterovic naît dans une famille ouvrière et passe son enfance et son adolescence dans sa ville natale de l'extrême sud du Chili. En 1974, il s'inscrit à l'université de Santiago, où il fait des études en sciences politiques et obtient un diplôme d'administration publique. Alors qu'il est étudiant, il milite dans les rangs du Parti communiste chilien. Ses activités politiques et culturelles, au sein d'une revue littéraire, lui valent d'être séquestré par la police de Pinochet, en 1977. De 1979 à 1985, il travaille comme administrateur public, mais quitte son emploi pour se joindre à un mouvement politique opposé à Pinochet. Il quitte le Parti communiste en 1989.
 À partir de 1985, il est critique de cinéma et critique littéraire pour différents journaux.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ram%C3%B3n_D%C3%ADaz_Eterovic</t>
+          <t>Ramón_Díaz_Eterovic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Heredia
-La ciudad está triste (1987)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Heredia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La ciudad está triste (1987)
 Solo en la oscuridad (1992)
 Nadie sabe más que los muertos (1993)
 Ángeles y solitarios (1995) Publié en français sous le titre La mort se lève tôt, Paris, Métailié, coll. « Bibliothèque hispano-américaine » (2003)  (ISBN 2-86424-487-X)
@@ -565,9 +587,43 @@
 El leve aliento de la verdad (2012)
 La música de la soledad  (2014). Publié en français sous le titre Negra soledad (2017)
 'Los fuegos del pasado' (2019)
-La cola del diablo (2019)
-Autres ouvrages
-Imágenes en el tiempo (1977)
+La cola del diablo (2019)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ramón_Díaz_Eterovic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ram%C3%B3n_D%C3%ADaz_Eterovic</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Imágenes en el tiempo (1977)
 El poeta derribado (1980)
 Cualquier día (1981)
 Pasajero de la ausencia (1982)
